--- a/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
+++ b/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC698226-4536-4B08-8033-242314B5A5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF80BFB-A6C9-46CA-9A22-82A260A45F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenzeitplanung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Credits</t>
   </si>
@@ -95,16 +95,76 @@
   </si>
   <si>
     <t>Erstbesprechung M.Schmid &amp; J.Schlatter</t>
+  </si>
+  <si>
+    <t>18.02.2020</t>
+  </si>
+  <si>
+    <t>Vorbereiten GitHub, Einarbeiten LaTeX, Recherche Restconf/Netconf, Aufarbeiten CN1&amp;2</t>
+  </si>
+  <si>
+    <t>19.02.2020</t>
+  </si>
+  <si>
+    <t>Repetition CN1&amp;2</t>
+  </si>
+  <si>
+    <t>Woche 1</t>
+  </si>
+  <si>
+    <t>Woche 2</t>
+  </si>
+  <si>
+    <t>Woche 3</t>
+  </si>
+  <si>
+    <t>Woche 4</t>
+  </si>
+  <si>
+    <t>Woche 5</t>
+  </si>
+  <si>
+    <t>Woche 6</t>
+  </si>
+  <si>
+    <t>Woche 7</t>
+  </si>
+  <si>
+    <t>Woche 8</t>
+  </si>
+  <si>
+    <t>Woche 9</t>
+  </si>
+  <si>
+    <t>Woche 10</t>
+  </si>
+  <si>
+    <t>Woche 11</t>
+  </si>
+  <si>
+    <t>Woche 12</t>
+  </si>
+  <si>
+    <t>Woche 13</t>
+  </si>
+  <si>
+    <t>Woche 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908ECEE0-259F-4DAD-83EF-F03661D293A9}">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -530,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59CFA0B-5073-47D1-B277-8AB34414DBDC}">
-  <dimension ref="B3:K5"/>
+  <dimension ref="A3:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +602,7 @@
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -562,7 +622,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -576,15 +639,15 @@
         <v>0.75</v>
       </c>
       <c r="I4">
-        <f>SUM(E4:E283)</f>
-        <v>2.25</v>
+        <f>SUM(E4:E296)</f>
+        <v>8.25</v>
       </c>
       <c r="K4">
         <f>240-I4</f>
-        <v>237.75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>231.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -598,7 +661,98 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
+++ b/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF80BFB-A6C9-46CA-9A22-82A260A45F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0AF80BFB-A6C9-46CA-9A22-82A260A45F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3B1568F-CA5D-48B7-A1B5-B241A8DAACCB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenzeitplanung" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,7 +512,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -593,13 +593,13 @@
   <dimension ref="A3:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>

--- a/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
+++ b/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF80BFB-A6C9-46CA-9A22-82A260A45F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="114_{78695A0B-4366-4EAD-9B51-BE98BCA9D7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BBA45E1-CAFE-4432-944F-9EAAA1A175F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenzeitplanung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Credits</t>
   </si>
@@ -149,6 +149,42 @@
   </si>
   <si>
     <t>Woche 14</t>
+  </si>
+  <si>
+    <t>18,02,2020</t>
+  </si>
+  <si>
+    <t>Aufsetzen der LateX Templates</t>
+  </si>
+  <si>
+    <t>20,02,2020</t>
+  </si>
+  <si>
+    <t>Aufarbeiten CN1 &amp; CN2</t>
+  </si>
+  <si>
+    <t>17,02,2020</t>
+  </si>
+  <si>
+    <t>Installation der notwendigen Tools</t>
+  </si>
+  <si>
+    <t>Einarbeiten LateX &amp; Python</t>
+  </si>
+  <si>
+    <t>Initialsitzung Kik Off Meeting</t>
+  </si>
+  <si>
+    <t>Sitzungsprotokoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,02,2020 </t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
   </si>
 </sst>
 </file>
@@ -194,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,7 +548,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -592,11 +628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59CFA0B-5073-47D1-B277-8AB34414DBDC}">
   <dimension ref="A3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
@@ -759,13 +795,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3792469E-442E-4F85-82FA-10DCA61A122A}">
-  <dimension ref="B3:K4"/>
+  <dimension ref="B3:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
@@ -806,12 +842,110 @@
         <v>1.5</v>
       </c>
       <c r="I4">
-        <f>SUM(E4:E283)</f>
-        <v>1.5</v>
+        <f>SUM(E4:E285)</f>
+        <v>26.5</v>
       </c>
       <c r="K4">
         <f>240-I4</f>
-        <v>238.5</v>
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
+++ b/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janik\OneDrive\Studium\Studienarbeit\SA-Git\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="114_{78695A0B-4366-4EAD-9B51-BE98BCA9D7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BBA45E1-CAFE-4432-944F-9EAAA1A175F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F30D84-30C7-406F-A037-3DF9CF8A1D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenzeitplanung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Credits</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>Projektplan</t>
+  </si>
+  <si>
+    <t>20.02.2020</t>
+  </si>
+  <si>
+    <t>Einarbeitung und Sitzung</t>
+  </si>
+  <si>
+    <t>25.02.2020</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Projektplan erstellen</t>
   </si>
 </sst>
 </file>
@@ -230,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,7 +563,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -628,11 +643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59CFA0B-5073-47D1-B277-8AB34414DBDC}">
   <dimension ref="A3:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
@@ -676,11 +691,11 @@
       </c>
       <c r="I4">
         <f>SUM(E4:E296)</f>
-        <v>8.25</v>
+        <v>20.25</v>
       </c>
       <c r="K4">
         <f>240-I4</f>
-        <v>231.75</v>
+        <v>219.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,10 +736,39 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,11 +841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3792469E-442E-4F85-82FA-10DCA61A122A}">
   <dimension ref="B3:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>

--- a/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
+++ b/Dokumentation/02_Zeitanalyse/Zeiterfassung-planung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Stuff\Network-Unit-Testing\Dokumentation\02_Zeitanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F30D84-30C7-406F-A037-3DF9CF8A1D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6B866-DDB7-4497-8FA3-782DFE6701E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA3DB036-A6A5-4371-84E1-A701E010C8E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>Credits</t>
   </si>
@@ -200,6 +200,33 @@
   </si>
   <si>
     <t>Projektplan erstellen</t>
+  </si>
+  <si>
+    <t>26.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse </t>
+  </si>
+  <si>
+    <t>Anpassungen Projektplan</t>
+  </si>
+  <si>
+    <t>W-Ist</t>
+  </si>
+  <si>
+    <t>W-Soll</t>
+  </si>
+  <si>
+    <t>W-Diff</t>
+  </si>
+  <si>
+    <t>27.02.2020</t>
+  </si>
+  <si>
+    <t>21.02.2020</t>
+  </si>
+  <si>
+    <t>Recherche Nornir, Napalm, Openconnect</t>
   </si>
 </sst>
 </file>
@@ -641,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59CFA0B-5073-47D1-B277-8AB34414DBDC}">
-  <dimension ref="A3:K34"/>
+  <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +680,7 @@
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -666,14 +693,23 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -689,16 +725,16 @@
       <c r="E4">
         <v>0.75</v>
       </c>
-      <c r="I4">
-        <f>SUM(E4:E296)</f>
-        <v>20.25</v>
-      </c>
-      <c r="K4">
-        <f>240-I4</f>
-        <v>219.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>SUM(E4:E302)</f>
+        <v>24.25</v>
+      </c>
+      <c r="L4">
+        <f>240-J4</f>
+        <v>215.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -712,7 +748,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -726,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -740,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -754,80 +790,129 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(E4:E9)</f>
+        <v>15.25</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <f>G10-F10</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
